--- a/Etch_A_Tune/Etch a Tune Bom.xlsx
+++ b/Etch_A_Tune/Etch a Tune Bom.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edward\Documents\GitHub\Etch-A-Tune\Etch_A_Tune\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrski\Documents\ECE411\Etch-A-Tune\Etch_A_Tune\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DC9EE9-68F4-4213-8536-94239FC0BCCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0DFF2C-0473-4D29-9E14-71A19E88A92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3585" yWindow="4545" windowWidth="28800" windowHeight="15255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43572" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ECE411 BOM Template" sheetId="1" r:id="rId1"/>
@@ -33,20 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="193">
   <si>
     <t>Bill Of Materials for: [7] [Etch A Tune]</t>
   </si>
   <si>
-    <t>Last modified: [11/13/25]</t>
-  </si>
-  <si>
-    <t>PCB version: [PCB VERSION 1]</t>
-  </si>
-  <si>
-    <t>BOM revision: [BOM REVISION 1]</t>
-  </si>
-  <si>
     <t>Qty</t>
   </si>
   <si>
@@ -89,9 +80,6 @@
     <t>36-1042P-ND</t>
   </si>
   <si>
-    <t>&gt;  C1-C6</t>
-  </si>
-  <si>
     <t>CL10E104KC8VPNC</t>
   </si>
   <si>
@@ -101,12 +89,6 @@
     <t>1276-CL10E104KC8VPNCCT-ND</t>
   </si>
   <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>IC1</t>
-  </si>
-  <si>
     <t>BQ25170DSGR</t>
   </si>
   <si>
@@ -119,63 +101,21 @@
     <t>J1</t>
   </si>
   <si>
-    <t>RSM-114-02-T-S</t>
-  </si>
-  <si>
-    <t>CONN RCPT 14POS 0.05 TIN SMD</t>
-  </si>
-  <si>
-    <t>RSM-114-02-T-S-ND</t>
-  </si>
-  <si>
-    <t>J2</t>
-  </si>
-  <si>
     <t>91601-304ALF</t>
   </si>
   <si>
-    <t>CONN RCPT 4POS 0.1 GOLD SMD</t>
-  </si>
-  <si>
     <t>609-91601-304ALFCT-ND</t>
   </si>
   <si>
-    <t>J3</t>
-  </si>
-  <si>
-    <t>M20-7910542R</t>
-  </si>
-  <si>
-    <t>CONN RCPT 5POS 0.1 GOLD SMD R/A</t>
-  </si>
-  <si>
-    <t>952-3198-1-ND</t>
-  </si>
-  <si>
     <t>J4</t>
   </si>
   <si>
-    <t>CONN RCP USB2.0 TYP C 24P SMD RA</t>
-  </si>
-  <si>
     <t>900-2171790001CT-ND</t>
   </si>
   <si>
     <t>L1</t>
   </si>
   <si>
-    <t>BRL3225T2R2M</t>
-  </si>
-  <si>
-    <t>FIXED IND 2.2UH 1.6A 78 MOHM SMD</t>
-  </si>
-  <si>
-    <t>587-2165-1-ND</t>
-  </si>
-  <si>
-    <t>MT1, MT2</t>
-  </si>
-  <si>
     <t>RIC11-31S15D7-GSMT</t>
   </si>
   <si>
@@ -185,63 +125,30 @@
     <t>2223-RIC11-31S15D7-GSMT-ND</t>
   </si>
   <si>
-    <t xml:space="preserve"> R1-R18</t>
-  </si>
-  <si>
     <t>RC0603FR-0710KL</t>
   </si>
   <si>
-    <t>RES 10K OHM 1% 1/10W 0603</t>
-  </si>
-  <si>
     <t>311-10.0KHRCT-ND</t>
   </si>
   <si>
-    <t>R19</t>
-  </si>
-  <si>
-    <t>&gt;  S1-S5</t>
-  </si>
-  <si>
     <t>B3AL-1005P</t>
   </si>
   <si>
-    <t>SWITCH TACTILE SPST-NO 0.05A 16V</t>
-  </si>
-  <si>
     <t>Z7816CT-ND</t>
   </si>
   <si>
     <t>S6</t>
   </si>
   <si>
-    <t>SWITCH SLIDE SPDT 0.3A 5V</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TP1-TP13</t>
-  </si>
-  <si>
-    <t>TestPoint</t>
-  </si>
-  <si>
-    <t>1mm Test point</t>
-  </si>
-  <si>
     <t>U1</t>
   </si>
   <si>
     <t>BQ29700DSER</t>
   </si>
   <si>
-    <t>IC BATT PROT LI-ION 1CELL 6WSON</t>
-  </si>
-  <si>
     <t>296-43985-1-ND</t>
   </si>
   <si>
-    <t>&gt;  U2, U3</t>
-  </si>
-  <si>
     <t>CSD16406Q3</t>
   </si>
   <si>
@@ -257,27 +164,15 @@
     <t>TPS62063DSGR</t>
   </si>
   <si>
-    <t>IC REG BUCK 3.3V 1.6A 8WSON</t>
-  </si>
-  <si>
-    <t>296-38304-6-ND</t>
-  </si>
-  <si>
     <t>U5</t>
   </si>
   <si>
     <t>STM32H7A3ZIT6Q</t>
   </si>
   <si>
-    <t>ARM® Cortex®-M7 STM32H7 Microcontroller IC 32-Bit 280MHz 2MB (2M x 8) FLASH 144-LQFP (20x20)</t>
-  </si>
-  <si>
     <t>497-STM32H7A3ZIT6Q-ND</t>
   </si>
   <si>
-    <t>TOTAL:</t>
-  </si>
-  <si>
     <t>VERSION INFO</t>
   </si>
   <si>
@@ -287,18 +182,448 @@
     <t>Date</t>
   </si>
   <si>
-    <t>1.0r0</t>
+    <t>C1,C2,C12,C25,C30,C31</t>
+  </si>
+  <si>
+    <t>C3,C6,C7,C10,C11,C13,C14,C15,C16,C17,C18,C19,C20,C21,C22,C23,C24,C26,C28,C29</t>
+  </si>
+  <si>
+    <t>C4,C9</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>C27</t>
+  </si>
+  <si>
+    <t>C32</t>
+  </si>
+  <si>
+    <t>C33</t>
+  </si>
+  <si>
+    <t>C36,C37</t>
+  </si>
+  <si>
+    <t>CR1,CR2</t>
+  </si>
+  <si>
+    <t>D1,D2</t>
+  </si>
+  <si>
+    <t>FB1</t>
+  </si>
+  <si>
+    <t>J2,J3,J6</t>
+  </si>
+  <si>
+    <t>J5</t>
+  </si>
+  <si>
+    <t>J7</t>
+  </si>
+  <si>
+    <t>MT1,MT2</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>R7,R8,R9,R10,R11,R12,R13,R14,R15,R16,R17,R18,R19,R31</t>
+  </si>
+  <si>
+    <t>R20,R21</t>
+  </si>
+  <si>
+    <t>R22,R23</t>
+  </si>
+  <si>
+    <t>R24,R25,R26,R27,R28,R29,R30,R33,R34,R35,R36,R39</t>
+  </si>
+  <si>
+    <t>R32,R37,R38,R40</t>
+  </si>
+  <si>
+    <t>S1,S2,S3,S4,S5</t>
+  </si>
+  <si>
+    <t>U2,U3</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>Y2</t>
+  </si>
+  <si>
+    <t>Last modified: [11/21/25]</t>
+  </si>
+  <si>
+    <t>Keystone Electronics</t>
+  </si>
+  <si>
+    <t>Samsung Electro-Mechanics</t>
+  </si>
+  <si>
+    <t>KEMET</t>
+  </si>
+  <si>
+    <t>Cal-Chip Electronics, Inc.</t>
+  </si>
+  <si>
+    <t>Toshiba Semiconductor and Storage</t>
+  </si>
+  <si>
+    <t>WÃ¼rth Elektronik</t>
+  </si>
+  <si>
+    <t>Murata Electronics</t>
+  </si>
+  <si>
+    <t>Amphenol</t>
+  </si>
+  <si>
+    <t>Amphenol ICC (FCI)</t>
+  </si>
+  <si>
+    <t>Molex</t>
+  </si>
+  <si>
+    <t>Same Sky (Formerly CUI Devices)</t>
+  </si>
+  <si>
+    <t>CNC Tech</t>
+  </si>
+  <si>
+    <t>Taiyo Yuden</t>
+  </si>
+  <si>
+    <t>TE Connectivity Passive Product</t>
+  </si>
+  <si>
+    <t>Panasonic Electronic Components</t>
+  </si>
+  <si>
+    <t>YAGEO</t>
+  </si>
+  <si>
+    <t>Stackpole Electronics Inc</t>
+  </si>
+  <si>
+    <t>OMRON Electronics</t>
+  </si>
+  <si>
+    <t>Texas Instruments</t>
+  </si>
+  <si>
+    <t>STMicroelectronics</t>
+  </si>
+  <si>
+    <t>Abracon LLC</t>
+  </si>
+  <si>
+    <t>CL10B105KA8NNNC</t>
+  </si>
+  <si>
+    <t>CL10A106KP8NNNC</t>
+  </si>
+  <si>
+    <t>C0603C220J5GACTU</t>
+  </si>
+  <si>
+    <t>GMC32X5R337M6R3NT</t>
+  </si>
+  <si>
+    <t>CL10A475KO8NNNC</t>
+  </si>
+  <si>
+    <t>C0603C221K5RACTU</t>
+  </si>
+  <si>
+    <t>C0603C102J8HACAUTO</t>
+  </si>
+  <si>
+    <t>CBR04C180F5GAC</t>
+  </si>
+  <si>
+    <t>CMS06(TE12L,Q,M)</t>
+  </si>
+  <si>
+    <t>150060GS75000</t>
+  </si>
+  <si>
+    <t>BLM18AG601SN1D</t>
+  </si>
+  <si>
+    <t>75915-414LF</t>
+  </si>
+  <si>
+    <t>SJ-3524-SMT-TR-PI</t>
+  </si>
+  <si>
+    <t>3220-10-0300-00</t>
+  </si>
+  <si>
+    <t>BRL3225T1R0M</t>
+  </si>
+  <si>
+    <t>CRGCQ0603F27K</t>
+  </si>
+  <si>
+    <t>ERA-3AEB6040V</t>
+  </si>
+  <si>
+    <t>RC0603JR-07330RL</t>
+  </si>
+  <si>
+    <t>RC0603JR-072K2L</t>
+  </si>
+  <si>
+    <t>ERJ-3EKF3603V</t>
+  </si>
+  <si>
+    <t>RC0603JR-07180KL</t>
+  </si>
+  <si>
+    <t>RMCF0603FT10R0</t>
+  </si>
+  <si>
+    <t>RC0603JR-075K1L</t>
+  </si>
+  <si>
+    <t>RC0603JR-070RL</t>
+  </si>
+  <si>
+    <t>ABM8G-12.000MHZ-D2Y-T</t>
+  </si>
+  <si>
+    <t>CAP CER 1UF 25V X7R 0603</t>
+  </si>
+  <si>
+    <t>CAP CER 10UF 10V X5R 0603</t>
+  </si>
+  <si>
+    <t>CAP CER 22PF 50V C0G/NP0 0603</t>
+  </si>
+  <si>
+    <t>CAP1210 X5R 330UF 20% 6.3V</t>
+  </si>
+  <si>
+    <t>CAP CER 4.7UF 16V X5R 0603</t>
+  </si>
+  <si>
+    <t>CAP CER 220PF 50V X7R 0603</t>
+  </si>
+  <si>
+    <t>CAP CER 0603 1NF 10V ULTRA STABL</t>
+  </si>
+  <si>
+    <t>CAP CER 18PF 50V C0G/NP0 0402</t>
+  </si>
+  <si>
+    <t>DIODE SCHOTTKY 30V 2A MFLAT</t>
+  </si>
+  <si>
+    <t>LED GREEN CLEAR 0603 SMD</t>
+  </si>
+  <si>
+    <t>FERRITE BEAD 600 OHM 0603 1LN</t>
+  </si>
+  <si>
+    <t>Board to Board &amp; Mezzanine Connectors 14P VRT SR RECEPT MATTE TIN</t>
+  </si>
+  <si>
+    <t>4 Position Receptacle, Bottom or Top Entry Connector 0.100" (2.54mm) Surface Mount Gold</t>
+  </si>
+  <si>
+    <t>USB-C (USB TYPE-C) USB 2.0 Receptacle Connector 24 (16+8 Dummy) Position Surface Mount, Right Angle; Through Hole</t>
+  </si>
+  <si>
+    <t>CONN JACK STEREO 3.5MM SMD R/A</t>
+  </si>
+  <si>
+    <t>CONN HEADER SMD 10POS 1.27MM</t>
+  </si>
+  <si>
+    <t>FIXED IND 1UH 2.2A 51.6 MOHM SMD</t>
+  </si>
+  <si>
+    <t>27 kOhms Â±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200, Moisture Resistant Thick Film</t>
+  </si>
+  <si>
+    <t>604 Ohms Â±0.1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200 Thin Film</t>
+  </si>
+  <si>
+    <t>330 Ohms Â±5% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Moisture Resistant Thick Film</t>
+  </si>
+  <si>
+    <t>2.2 kOhms Â±5% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Moisture Resistant Thick Film</t>
+  </si>
+  <si>
+    <t>360 kOhms Â±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200 Thick Film</t>
+  </si>
+  <si>
+    <t>180 kOhms Â±5% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Moisture Resistant Thick Film</t>
+  </si>
+  <si>
+    <t>10 kOhms Â±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Moisture Resistant Thick Film</t>
+  </si>
+  <si>
+    <t>10 Ohms Â±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200 Thick Film</t>
+  </si>
+  <si>
+    <t>5.1 kOhms Â±5% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Moisture Resistant Thick Film</t>
+  </si>
+  <si>
+    <t>RES 0 OHM JUMPER 1/10W 0603</t>
+  </si>
+  <si>
+    <t>Tactile Switches 4.50N OF Long Stroke Pink Button</t>
+  </si>
+  <si>
+    <t>Slide Switch SPDT Surface Mount</t>
+  </si>
+  <si>
+    <t>Voltage and Current Protection for Single-Cell Li-Ion and Li-Polymer Batteries</t>
+  </si>
+  <si>
+    <t>Buck Switching Regulator IC Positive Fixed 3.3V 1 Output 1.6A 8-WFDFN Exposed Pad</t>
+  </si>
+  <si>
+    <t>ARMÂ® CortexÂ®-M7 STM32H7 Microcontroller IC 32-Bit 280MHz 2MB (2M x 8) FLASH 144-LQFP (20x20)</t>
+  </si>
+  <si>
+    <t>CRYSTAL 12.0000MHZ 18PF SMD</t>
+  </si>
+  <si>
+    <t>1276-1184-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1276-1192-1-ND </t>
+  </si>
+  <si>
+    <t>399-C0603C220J5GACTUCT-ND</t>
+  </si>
+  <si>
+    <t>4713-GMC32X5R337M6R3NTCT-ND</t>
+  </si>
+  <si>
+    <t>1276-1784-1-ND</t>
+  </si>
+  <si>
+    <t>399-C0603C221K5RACTUCT-ND</t>
+  </si>
+  <si>
+    <t>399-C0603C102J8HACAUTOCT-ND</t>
+  </si>
+  <si>
+    <t>399-8828-1-ND</t>
+  </si>
+  <si>
+    <t>CMS06QMCT-ND</t>
+  </si>
+  <si>
+    <t>732-4971-1-ND</t>
+  </si>
+  <si>
+    <t>490-1014-1-ND</t>
+  </si>
+  <si>
+    <t>609-75915-414LF-ND</t>
+  </si>
+  <si>
+    <t>CP-3524SJPICT-ND</t>
+  </si>
+  <si>
+    <t>1175-1629-ND</t>
+  </si>
+  <si>
+    <t>587-2164-1-ND</t>
+  </si>
+  <si>
+    <t>A129705CT-ND</t>
+  </si>
+  <si>
+    <t>P604DBCT-ND</t>
+  </si>
+  <si>
+    <t>311-330GRCT-ND</t>
+  </si>
+  <si>
+    <t>311-2.2KGRCT-ND</t>
+  </si>
+  <si>
+    <t>P360KHCT-ND</t>
+  </si>
+  <si>
+    <t>311-180KGRCT-ND</t>
+  </si>
+  <si>
+    <t>RMCF0603FT10R0CT-ND</t>
+  </si>
+  <si>
+    <t>311-5.1KGRCT-ND</t>
+  </si>
+  <si>
+    <t>311-0.0GRCT-ND</t>
+  </si>
+  <si>
+    <t>732-13665-1-ND</t>
+  </si>
+  <si>
+    <t>296-38304-1-ND</t>
+  </si>
+  <si>
+    <t>535-ABM8G-12.000MHZ-D2Y-TCT-ND</t>
+  </si>
+  <si>
+    <t>2171790001</t>
+  </si>
+  <si>
+    <t>450404015514</t>
+  </si>
+  <si>
+    <t>1.0r1</t>
+  </si>
+  <si>
+    <t>BOM revision: [BOM REVISION 1.0]</t>
+  </si>
+  <si>
+    <t>PCB version: [PCB VERSION 1.0]</t>
+  </si>
+  <si>
+    <t>Total:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -316,35 +641,8 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF222222"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF444444"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF222222"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF222222"/>
-      <name val="Roboto"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -355,12 +653,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFEFEFEF"/>
         <bgColor rgb="FFEFEFEF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -376,7 +668,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -387,32 +679,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -420,6 +689,8 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,26 +906,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L998"/>
+  <dimension ref="A1:I998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
+      <pane ySplit="6" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
     <col min="4" max="4" width="26.42578125" customWidth="1"/>
-    <col min="5" max="5" width="49.28515625" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="20.85546875" customWidth="1"/>
     <col min="8" max="9" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -667,9 +938,9 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -679,9 +950,9 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>191</v>
       </c>
       <c r="B3" s="3"/>
       <c r="E3" s="3"/>
@@ -689,9 +960,9 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>3</v>
+        <v>190</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -700,7 +971,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -710,760 +981,1204 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="H6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="I6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="5" t="s">
+    </row>
+    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="E7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="12">
+        <v>5.54</v>
+      </c>
+      <c r="I7" s="8">
+        <f t="shared" ref="I7:I45" si="0">$H7*$A7</f>
+        <v>5.54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>160</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="I8" s="8">
+        <f t="shared" si="0"/>
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="I9" s="8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>161</v>
+      </c>
+      <c r="H10" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="I10" s="8">
+        <f t="shared" si="0"/>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>1</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7" t="s">
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>162</v>
+      </c>
+      <c r="H11" s="12">
+        <v>0.12</v>
+      </c>
+      <c r="I11" s="8">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" t="s">
+        <v>130</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>163</v>
+      </c>
+      <c r="H12" s="12">
+        <v>4.26</v>
+      </c>
+      <c r="I12" s="8">
+        <f t="shared" si="0"/>
+        <v>4.26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>164</v>
+      </c>
+      <c r="H13" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="I13" s="8">
+        <f t="shared" si="0"/>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>165</v>
+      </c>
+      <c r="H14" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="I14" s="8">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" t="s">
+        <v>133</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s">
+        <v>166</v>
+      </c>
+      <c r="H15" s="12">
+        <v>0.13</v>
+      </c>
+      <c r="I15" s="8">
+        <f t="shared" si="0"/>
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" t="s">
+        <v>134</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>167</v>
+      </c>
+      <c r="H16" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="I16" s="8">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" t="s">
+        <v>135</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s">
+        <v>168</v>
+      </c>
+      <c r="H17" s="12">
+        <v>0.23</v>
+      </c>
+      <c r="I17" s="8">
+        <f t="shared" si="0"/>
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" t="s">
+        <v>136</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s">
+        <v>169</v>
+      </c>
+      <c r="H18" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="I18" s="8">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" t="s">
+        <v>137</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s">
+        <v>170</v>
+      </c>
+      <c r="H19" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="I19" s="8">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" t="s">
+        <v>138</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s">
+        <v>171</v>
+      </c>
+      <c r="H20" s="12">
+        <v>1.86</v>
+      </c>
+      <c r="I20" s="8">
+        <f t="shared" si="0"/>
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="12">
+        <v>0.76</v>
+      </c>
+      <c r="I21" s="8">
+        <f t="shared" si="0"/>
+        <v>2.2800000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="E22" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="12">
+        <v>0.83</v>
+      </c>
+      <c r="I22" s="8">
+        <f t="shared" si="0"/>
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" t="s">
+        <v>141</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" t="s">
+        <v>172</v>
+      </c>
+      <c r="H23" s="12">
+        <v>1.22</v>
+      </c>
+      <c r="I23" s="8">
+        <f t="shared" si="0"/>
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" t="s">
+        <v>142</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s">
+        <v>173</v>
+      </c>
+      <c r="H24" s="12">
+        <v>0.81</v>
+      </c>
+      <c r="I24" s="8">
+        <f t="shared" si="0"/>
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" t="s">
+        <v>116</v>
+      </c>
+      <c r="E25" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s">
+        <v>174</v>
+      </c>
+      <c r="H25" s="12">
+        <v>0.18</v>
+      </c>
+      <c r="I25" s="8">
+        <f t="shared" si="0"/>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" s="12">
+        <v>2.14</v>
+      </c>
+      <c r="I26" s="8">
+        <f t="shared" si="0"/>
+        <v>4.28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" t="s">
+        <v>117</v>
+      </c>
+      <c r="E27" t="s">
+        <v>144</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" t="s">
+        <v>175</v>
+      </c>
+      <c r="H27" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="I27" s="8">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" t="s">
+        <v>118</v>
+      </c>
+      <c r="E28" t="s">
+        <v>145</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" t="s">
+        <v>176</v>
+      </c>
+      <c r="H28" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="I28" s="8">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" t="s">
+        <v>119</v>
+      </c>
+      <c r="E29" t="s">
+        <v>146</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" t="s">
+        <v>177</v>
+      </c>
+      <c r="H29" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="I29" s="8">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" t="s">
+        <v>120</v>
+      </c>
+      <c r="E30" t="s">
+        <v>147</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" t="s">
+        <v>178</v>
+      </c>
+      <c r="H30" s="12">
+        <v>0.11</v>
+      </c>
+      <c r="I30" s="8">
+        <f t="shared" si="0"/>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" t="s">
+        <v>121</v>
+      </c>
+      <c r="E31" t="s">
+        <v>148</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" t="s">
+        <v>179</v>
+      </c>
+      <c r="H31" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="I31" s="8">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" t="s">
+        <v>122</v>
+      </c>
+      <c r="E32" t="s">
+        <v>149</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" t="s">
+        <v>180</v>
+      </c>
+      <c r="H32" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="I32" s="8">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>14</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="9">
-        <v>5.54</v>
-      </c>
-      <c r="I7" s="10">
-        <f t="shared" ref="I7:I25" si="0">$H7*$A7</f>
-        <v>5.54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
-        <v>6</v>
-      </c>
-      <c r="B8" s="7" t="s">
+      <c r="B33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" t="s">
+        <v>150</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" t="s">
+        <v>31</v>
+      </c>
+      <c r="H33" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="I33" s="8">
+        <f t="shared" si="0"/>
+        <v>1.4000000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" t="s">
+        <v>123</v>
+      </c>
+      <c r="E34" t="s">
+        <v>151</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" t="s">
+        <v>181</v>
+      </c>
+      <c r="H34" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="I34" s="8">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" t="s">
+        <v>124</v>
+      </c>
+      <c r="E35" t="s">
+        <v>152</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" t="s">
+        <v>182</v>
+      </c>
+      <c r="H35" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="I35" s="8">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>12</v>
+      </c>
+      <c r="B36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" t="s">
+        <v>125</v>
+      </c>
+      <c r="E36" t="s">
+        <v>153</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" t="s">
+        <v>183</v>
+      </c>
+      <c r="H36" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="I36" s="8">
+        <f t="shared" si="0"/>
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" t="s">
+        <v>125</v>
+      </c>
+      <c r="E37" t="s">
+        <v>153</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" t="s">
+        <v>183</v>
+      </c>
+      <c r="H37" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="I37" s="8">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" t="s">
+        <v>154</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" t="s">
+        <v>33</v>
+      </c>
+      <c r="H38" s="12">
+        <v>1.53</v>
+      </c>
+      <c r="I38" s="8">
+        <f t="shared" si="0"/>
+        <v>7.65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="E39" t="s">
+        <v>155</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" t="s">
+        <v>184</v>
+      </c>
+      <c r="H39" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="I39" s="8">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" t="s">
+        <v>99</v>
+      </c>
+      <c r="D40" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" t="s">
+        <v>156</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" t="s">
+        <v>37</v>
+      </c>
+      <c r="H40" s="12">
+        <v>0.51</v>
+      </c>
+      <c r="I40" s="8">
+        <f t="shared" si="0"/>
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" t="s">
+        <v>99</v>
+      </c>
+      <c r="D41" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" t="s">
+        <v>39</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" t="s">
+        <v>40</v>
+      </c>
+      <c r="H41" s="12">
+        <v>1.65</v>
+      </c>
+      <c r="I41" s="8">
+        <f t="shared" si="0"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" t="s">
+        <v>42</v>
+      </c>
+      <c r="E42" t="s">
+        <v>157</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" t="s">
+        <v>185</v>
+      </c>
+      <c r="H42" s="12">
+        <v>2.12</v>
+      </c>
+      <c r="I42" s="8">
+        <f t="shared" si="0"/>
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" t="s">
+        <v>100</v>
+      </c>
+      <c r="D43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" t="s">
+        <v>158</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" s="12">
+        <v>14.86</v>
+      </c>
+      <c r="I43" s="8">
+        <f t="shared" si="0"/>
+        <v>14.86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" t="s">
+        <v>99</v>
+      </c>
+      <c r="D44" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7" t="s">
+      <c r="E44" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="F44" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="I8" s="10">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
-        <v>1</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="I9" s="10">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
-        <v>1</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="9">
+      <c r="H44" s="12">
         <v>0.96</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I44" s="8">
         <f t="shared" si="0"/>
         <v>0.96</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
+    <row r="45" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45">
         <v>1</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="9">
-        <v>3.2</v>
-      </c>
-      <c r="I11" s="10">
+      <c r="B45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" t="s">
+        <v>101</v>
+      </c>
+      <c r="D45" t="s">
+        <v>126</v>
+      </c>
+      <c r="E45" t="s">
+        <v>159</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" t="s">
+        <v>186</v>
+      </c>
+      <c r="H45" s="12">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I45" s="8">
         <f t="shared" si="0"/>
-        <v>3.2</v>
-      </c>
-      <c r="L11" s="13"/>
-    </row>
-    <row r="12" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
-        <v>1</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="9">
-        <v>0.76</v>
-      </c>
-      <c r="I12" s="10">
-        <f t="shared" si="0"/>
-        <v>0.76</v>
-      </c>
-      <c r="K12" s="14"/>
-    </row>
-    <row r="13" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
-        <v>1</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="9">
-        <v>1.06</v>
-      </c>
-      <c r="I13" s="10">
-        <f t="shared" si="0"/>
-        <v>1.06</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
-        <v>1</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7">
-        <v>2171790001</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="9">
-        <v>0.83</v>
-      </c>
-      <c r="I14" s="10">
-        <f t="shared" si="0"/>
-        <v>0.83</v>
-      </c>
-      <c r="K14" s="15"/>
-    </row>
-    <row r="15" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
-        <v>1</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" s="9">
-        <v>0.16</v>
-      </c>
-      <c r="I15" s="10">
-        <f t="shared" si="0"/>
-        <v>0.16</v>
-      </c>
-      <c r="K15" s="14"/>
-      <c r="L15" s="13"/>
-    </row>
-    <row r="16" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
-        <v>2</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="9">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="I16" s="10">
-        <f t="shared" si="0"/>
-        <v>4.4800000000000004</v>
-      </c>
-      <c r="K16" s="14"/>
-    </row>
-    <row r="17" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
-        <v>18</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="I17" s="10">
-        <f t="shared" si="0"/>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
-        <v>1</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H18" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="I18" s="10">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
-        <v>5</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H19" s="9">
-        <v>1.56</v>
-      </c>
-      <c r="I19" s="10">
-        <f t="shared" si="0"/>
-        <v>7.8000000000000007</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
-        <v>1</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7">
-        <v>450404015514</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="7">
-        <v>450404015514</v>
-      </c>
-      <c r="H20" s="9">
-        <v>0.8</v>
-      </c>
-      <c r="I20" s="10">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
-        <v>13</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="16">
-        <v>0</v>
-      </c>
-      <c r="I21" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="7">
-        <v>1</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H22" s="10">
-        <v>0.51</v>
-      </c>
-      <c r="I22" s="10">
-        <f t="shared" si="0"/>
-        <v>0.51</v>
-      </c>
-      <c r="L22" s="15"/>
-    </row>
-    <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="7">
-        <v>2</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H23" s="9">
-        <v>1.65</v>
-      </c>
-      <c r="I23" s="10">
-        <f t="shared" si="0"/>
-        <v>3.3</v>
-      </c>
-      <c r="L23" s="14"/>
-    </row>
-    <row r="24" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="7">
-        <v>1</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H24" s="9">
-        <v>2.12</v>
-      </c>
-      <c r="I24" s="10">
-        <f t="shared" si="0"/>
-        <v>2.12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="7">
-        <v>1</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H25" s="10">
-        <v>14.86</v>
-      </c>
-      <c r="I25" s="10">
-        <f t="shared" si="0"/>
-        <v>14.86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-    </row>
-    <row r="27" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-    </row>
-    <row r="28" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-    </row>
-    <row r="29" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-    </row>
-    <row r="30" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-    </row>
-    <row r="31" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-    </row>
-    <row r="32" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-    </row>
-    <row r="33" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-    </row>
-    <row r="34" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-    </row>
-    <row r="35" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-    </row>
-    <row r="36" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-    </row>
-    <row r="37" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-    </row>
-    <row r="38" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H38" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="I38" s="17">
-        <f>SUM(I7:I37)</f>
-        <v>50.03</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-    </row>
-    <row r="40" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-    </row>
-    <row r="41" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-    </row>
-    <row r="42" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="B42" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-    </row>
-    <row r="43" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B43" s="20">
-        <v>45974</v>
-      </c>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-    </row>
-    <row r="44" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-    </row>
-    <row r="45" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
+        <v>0.56999999999999995</v>
+      </c>
     </row>
     <row r="46" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H46" s="4"/>
@@ -1477,67 +2192,93 @@
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
     </row>
-    <row r="49" spans="8:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
     </row>
-    <row r="50" spans="8:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
     </row>
-    <row r="51" spans="8:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
     </row>
-    <row r="52" spans="8:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
     </row>
-    <row r="53" spans="8:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
     </row>
-    <row r="54" spans="8:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-    </row>
-    <row r="55" spans="8:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-    </row>
-    <row r="56" spans="8:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+    </row>
+    <row r="55" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H55" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="I55" s="4">
+        <f>SUM(I7:I45)</f>
+        <v>63.669999999999995</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
     </row>
-    <row r="57" spans="8:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B57" s="11">
+        <v>45982</v>
+      </c>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
     </row>
-    <row r="58" spans="8:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
     </row>
-    <row r="59" spans="8:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
     </row>
-    <row r="60" spans="8:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
     </row>
-    <row r="61" spans="8:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
     </row>
-    <row r="62" spans="8:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
     </row>
-    <row r="63" spans="8:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
     </row>
-    <row r="64" spans="8:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
     </row>
